--- a/ELEKEN_飛行機班予算_R6_β0.0.4.xlsx
+++ b/ELEKEN_飛行機班予算_R6_β0.0.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutomonceau/Desktop/Git/JA1YNX/Plane-R6/Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAABA7A5-E845-034B-817A-C8E70172AC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8235EE6E-EB42-D548-A2DB-84F62BE667DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35180" yWindow="-300" windowWidth="29040" windowHeight="18560" xr2:uid="{A8EBACB4-888D-AF45-B455-065BB4C56F6C}"/>
+    <workbookView xWindow="1020" yWindow="760" windowWidth="29040" windowHeight="18560" xr2:uid="{A8EBACB4-888D-AF45-B455-065BB4C56F6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>v. β0.0.3</t>
+    <t>v. β0.0.4</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -972,7 +972,7 @@
   <dimension ref="B4:I161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
